--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>986585.4051237267</v>
+        <v>1016819.683942942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7561246.902208581</v>
+        <v>8061839.454371459</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -671,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>99.22789100784752</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.2464393403976</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.857062697108432</v>
       </c>
       <c r="H4" t="n">
-        <v>121.5805385097626</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -896,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>253.4105282165709</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>195.5104445397025</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1063,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>136.3231834654529</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>253.4105282165707</v>
+        <v>264.9481049475941</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>35.21818527535722</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>126.9066893143868</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>258.2027502733501</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1528,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>134.9989678506928</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1609,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>112.57223881222</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>106.38799505241</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.7563010083702</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1813,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1825,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>11.39996927779299</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2090,10 +2092,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.9059542963562</v>
+        <v>153.9723828910722</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.34777166565063</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2484,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>130.04008984845</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2719,16 +2721,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>260.4446813871633</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>31.33921635700846</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>219.4138603819637</v>
+        <v>73.88082355467124</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>123.0673923170405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3670,10 +3672,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>189.5733066869331</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>228.9130160223862</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.92613046756895</v>
+        <v>169.8571210237862</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3983,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>268.5804587491974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>220.5479980920884</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.8471851408333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.775797585523</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>843.8750675988227</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>824.622850824227</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>802.6863150124886</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
         <v>377.2634748317415</v>
@@ -4328,25 +4330,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2124.681059525157</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>1903.75548856979</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>1645.400579166202</v>
       </c>
       <c r="V2" t="n">
-        <v>1862.189048931929</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W2" t="n">
-        <v>1862.189048931929</v>
+        <v>891.5198145927988</v>
       </c>
       <c r="X2" t="n">
-        <v>1450.469050099676</v>
+        <v>883.8402198009501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.583757836649</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1771.166545545054</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.1411871531071</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="C4" t="n">
-        <v>339.1686240320231</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="D4" t="n">
-        <v>339.1686240320231</v>
+        <v>628.0088627795734</v>
       </c>
       <c r="E4" t="n">
-        <v>339.1686240320231</v>
+        <v>461.8006569324269</v>
       </c>
       <c r="F4" t="n">
-        <v>167.3068498065835</v>
+        <v>289.9388827069873</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3068498065835</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4519,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X4" t="n">
-        <v>927.6499241754307</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.3071558651727</v>
+        <v>981.4916043648684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>767.0800483381174</v>
+        <v>831.8385222885896</v>
       </c>
       <c r="C5" t="n">
-        <v>511.1098178163286</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4565,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1923.058660820666</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.98568150701</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>1592.265682674757</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1186.928412629647</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4643,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
         <v>1220.501010560616</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856.0490050883208</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>684.0764419672367</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>520.7596690940074</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>354.551463246861</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
         <v>354.551463246861</v>
@@ -4720,55 +4722,55 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1515.121638664839</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1272.557742110644</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1046.214973800386</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.160856418925</v>
+        <v>813.6310375047708</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4838,16 +4840,16 @@
         <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.98568150701</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.306086715161</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.009220710455</v>
+        <v>1233.479401796301</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.5237630147394</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="C10" t="n">
-        <v>310.5237630147394</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="D10" t="n">
-        <v>310.5237630147394</v>
+        <v>517.9594617607419</v>
       </c>
       <c r="E10" t="n">
-        <v>310.5237630147394</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
         <v>310.5237630147394</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2049.684064084512</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1806.344716310412</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1526.160267810716</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.448800418745</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W10" t="n">
-        <v>969.596396591258</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X10" t="n">
-        <v>727.0325000370631</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.6897317268051</v>
+        <v>871.4422033460369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1339.999683109092</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>913.0989531223917</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>489.8063323073919</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2973.296665977638</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2576.905316277984</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.185317445731</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1759.848047400622</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>655.1670770651317</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>1455.608689462935</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>1455.608689462935</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N12" t="n">
-        <v>1455.608689462935</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>478.9271847585218</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C13" t="n">
-        <v>478.9271847585218</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D13" t="n">
-        <v>478.9271847585218</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E13" t="n">
-        <v>478.9271847585218</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2097.088765190713</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1853.749417416613</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1573.564968916917</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1291.853501524946</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1017.001097697459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.5989235668642</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>880.5989235668642</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>880.5989235668642</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>766.8895914333086</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>64.68215049679215</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M14" t="n">
-        <v>351.3032064999879</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N14" t="n">
-        <v>1151.744818897791</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295594</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453521</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712748</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2871.38532130916</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2513.895906435409</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2117.504556735757</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1705.784557903504</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1300.447287858394</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>926.8645663447228</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>926.8645663447228</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>926.8645663447228</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>926.8645663447228</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>926.8645663447228</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1327.204994129819</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>685.2390318375792</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="C16" t="n">
-        <v>685.2390318375792</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="D16" t="n">
-        <v>521.9222589643499</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E16" t="n">
-        <v>355.7140531172034</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F16" t="n">
-        <v>355.7140531172034</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
-        <v>189.4570834114356</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.717216822994</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.532768323298</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1392.821300931327</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1117.96889710384</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X16" t="n">
-        <v>875.4050005496448</v>
+        <v>1015.517151278464</v>
       </c>
       <c r="Y16" t="n">
-        <v>875.4050005496448</v>
+        <v>789.1743829682065</v>
       </c>
     </row>
     <row r="17">
@@ -5525,16 +5527,16 @@
         <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5589,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>305.3113489363686</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>973.9392920493918</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>747.5965237391339</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>184.7102578919605</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7102578919605</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>1021.509065974867</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.252050633783</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>368.279487512699</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>368.279487512699</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>202.0712816655526</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251168</v>
+        <v>2080.149468020199</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751472</v>
+        <v>1799.965019520503</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359501</v>
+        <v>1518.253552128532</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532014</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778191</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y22" t="n">
-        <v>730.4180193458487</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>233.656339515374</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>233.656339515374</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>233.656339515374</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.555503974472</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1875.844036582501</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1600.991632755014</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1358.427736200819</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6232,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
         <v>3444.155406100785</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3918.135197142812</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C28" t="n">
-        <v>3746.162634021728</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D28" t="n">
-        <v>3582.845861148498</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E28" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4852.060234546818</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4577.207830719331</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>4334.643934165136</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y28" t="n">
-        <v>4108.301165854878</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6546,19 +6548,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>730.647150085061</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>730.647150085061</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>730.647150085061</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3448.404218294985</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3276.431655173901</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3244.775881075912</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3864.912955317308</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>3864.912955317308</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3638.57018700705</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6704,10 +6706,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6777,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1085.715267670341</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>1085.715267670341</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X34" t="n">
-        <v>1085.715267670341</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y34" t="n">
-        <v>1085.715267670341</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>4362.434577686964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7072,22 +7074,22 @@
         <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7163,7 +7165,7 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7178,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1833.368380730673</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.654482149731</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3813.905540636432</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7251,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>941.9189991784958</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C40" t="n">
-        <v>769.9464360574118</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7330,52 +7332,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299894</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358265</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.555503974472</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V40" t="n">
-        <v>1875.844036582501</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.991632755014</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X40" t="n">
-        <v>1358.427736200819</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.084967890562</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.976622961234</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.075892974534</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1943.23552968699</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2743.677142084793</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3234.107524839607</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>3002.882256130126</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3002.882256130126</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2591.162257297874</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2185.824987252764</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>343.826282738295</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>934.3112093066346</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>1409.224304214523</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M42" t="n">
-        <v>1409.224304214523</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="N42" t="n">
-        <v>1409.224304214523</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="O42" t="n">
-        <v>1409.224304214523</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="P42" t="n">
-        <v>1409.224304214523</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.767754982951</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="C43" t="n">
-        <v>371.7951918618671</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="D43" t="n">
-        <v>208.4784189886378</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="E43" t="n">
-        <v>208.4784189886378</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="F43" t="n">
-        <v>208.4784189886378</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.404259778928</v>
+        <v>4615.100733636837</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.692792386956</v>
+        <v>4333.389266244865</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.840388559469</v>
+        <v>4058.536862417378</v>
       </c>
       <c r="X43" t="n">
-        <v>960.2764920052746</v>
+        <v>3815.972965863184</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.9337236950166</v>
+        <v>3589.630197552925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2042.207124045608</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1615.306394058908</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1192.013773243908</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1192.013773243908</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1142.793917289187</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1943.23552968699</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1943.23552968699</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2069.742766177496</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3129.740230712748</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>3129.740230712748</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>3129.740230712748</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2733.348881013095</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2462.055488337138</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2462.055488337138</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>1633.224300044002</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M45" t="n">
-        <v>2433.665912441805</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N45" t="n">
-        <v>3234.107524839607</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O45" t="n">
-        <v>3234.107524839607</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839607</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2001.75583013582</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>2001.75583013582</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>2001.75583013582</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1726.903426308333</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="X46" t="n">
-        <v>1484.339529754139</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8222,22 +8224,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>547.9768619480852</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>372.2051051843582</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898808</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8471,7 +8473,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>371.0330466836703</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>607.201212966307</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>780.1861952483929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>298.7446820670145</v>
       </c>
       <c r="O12" t="n">
-        <v>445.1527903427953</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>886.6939262492853</v>
       </c>
       <c r="M14" t="n">
-        <v>326.9474810844781</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>482.0566840416755</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9018,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>426.1551116948253</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,10 +9175,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>848.7638096822445</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>227.5743145228559</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>103.8510582587192</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9489,10 +9491,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9717,13 +9719,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>197.3567057122801</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>278.4163741766268</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9963,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,13 +10114,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M29" t="n">
-        <v>660.9541399377149</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10194,7 +10196,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>657.2064368952725</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10203,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10352,13 +10354,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N32" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10425,22 +10427,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>768.7505555806109</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10449,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>998.750394705596</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574439</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10826,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>697.8614369098447</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>124.138595085601</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>532.6638478393094</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>502.225283590884</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>279.5761010481211</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>165.8504292605622</v>
       </c>
       <c r="O44" t="n">
-        <v>165.1760467201724</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>232.4185269010013</v>
+        <v>474.650675344883</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>95.71177045166291</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>33.4347291553637</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>309.144931641401</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.29561009208696</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>117.6020047985569</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.7382883108599</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>86.93357140528681</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.7315689615048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.55431016026014</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>18.44967133088807</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.3443887874885</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>52.69001940724843</v>
+        <v>198.2230562345409</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>47.18544517283263</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25324,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>113.008962604416</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>50.56495090171978</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>125.0015047026268</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>252.4564735471298</v>
+        <v>107.5254829909125</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>139.0223400947328</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>51.55588169712365</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.23215548632203</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>522294.4460829606</v>
+        <v>693621.7217352311</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>522294.4460829607</v>
+        <v>693621.7217352311</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>704395.4771586444</v>
+        <v>704395.4771586442</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>704395.4771586444</v>
+        <v>704395.4771586442</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>704395.4771586444</v>
+        <v>704395.4771586442</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>704395.4771586442</v>
+        <v>704395.4771586444</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>522294.4460829606</v>
+        <v>693621.7217352311</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>522294.4460829607</v>
+        <v>693621.7217352311</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393148.800907535</v>
+        <v>393148.8009075351</v>
       </c>
       <c r="C2" t="n">
-        <v>393148.8009075352</v>
+        <v>393148.8009075353</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="F2" t="n">
-        <v>281314.6956018534</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177771</v>
       </c>
       <c r="H2" t="n">
         <v>379370.522117777</v>
       </c>
       <c r="I2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="J2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="K2" t="n">
         <v>379370.5221177769</v>
@@ -26347,13 +26349,13 @@
         <v>379370.5221177769</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.5221177768</v>
       </c>
       <c r="O2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="P2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794165</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>199866.3919893415</v>
       </c>
       <c r="C4" t="n">
-        <v>199866.3919893415</v>
+        <v>199866.3919893416</v>
       </c>
       <c r="D4" t="n">
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="F4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458319</v>
@@ -26442,22 +26444,22 @@
         <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="P4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60568.57553397186</v>
+        <v>-60568.57553397171</v>
       </c>
       <c r="C6" t="n">
         <v>125836.1578807656</v>
@@ -26528,22 +26530,22 @@
         <v>125836.1578807654</v>
       </c>
       <c r="E6" t="n">
-        <v>81972.83025749901</v>
+        <v>-9386.692563021701</v>
       </c>
       <c r="F6" t="n">
-        <v>157303.7814109611</v>
+        <v>198045.5950535394</v>
       </c>
       <c r="G6" t="n">
-        <v>71717.2060719749</v>
+        <v>192981.9838000341</v>
       </c>
       <c r="H6" t="n">
         <v>200607.6058835154</v>
       </c>
       <c r="I6" t="n">
-        <v>200607.6058835151</v>
+        <v>200607.6058835154</v>
       </c>
       <c r="J6" t="n">
-        <v>55073.93594869874</v>
+        <v>55073.9359486989</v>
       </c>
       <c r="K6" t="n">
         <v>200607.6058835154</v>
@@ -26552,16 +26554,16 @@
         <v>200607.6058835154</v>
       </c>
       <c r="M6" t="n">
-        <v>137733.6689181415</v>
+        <v>27477.11467787583</v>
       </c>
       <c r="N6" t="n">
-        <v>200607.6058835154</v>
+        <v>200607.6058835153</v>
       </c>
       <c r="O6" t="n">
-        <v>157303.7814109612</v>
+        <v>198045.5950535392</v>
       </c>
       <c r="P6" t="n">
-        <v>157303.7814109612</v>
+        <v>198045.5950535393</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.095730177743476</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.037458004261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>162.7373373116017</v>
       </c>
       <c r="H4" t="n">
-        <v>20.77776729716453</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>169.221194470262</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>23.20587070611069</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27679,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>185.3716196335914</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>135.7806963237592</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>169.2211944702622</v>
+        <v>157.6836177392387</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>129.3279385133177</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>41.52700769166968</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.642779091942156e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29010,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34942,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>510.5455990486534</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P9" t="n">
-        <v>440.0596680121639</v>
-      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>568.8891705336841</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>742.9065724139468</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O12" t="n">
-        <v>421.9809006205731</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>848.3818838166624</v>
       </c>
       <c r="M14" t="n">
-        <v>289.5162181850463</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,10 +35895,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>811.4841868477985</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>205.0592278086264</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>83.23994392538583</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>257.8052598432935</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M29" t="n">
-        <v>623.5228770382831</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>634.6913501810429</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,13 +37074,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N32" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>746.2354688663813</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>961.47077187115</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439022</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>659.5493944772218</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>102.3677538807724</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127355</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>495.3842250048633</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>128.5708064261162</v>
       </c>
       <c r="O44" t="n">
-        <v>127.7850873641483</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9034401867717</v>
+        <v>452.1355886306534</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1016819.683942942</v>
+        <v>1016101.693828084</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760745</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>386.8406937376552</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.22789100784752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -721,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>123.0673923170412</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857062697108432</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -873,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>213.6674677080926</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5104445397025</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>92.01098438110735</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>264.9481049475941</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1147,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>110.7941771534336</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>35.21818527535722</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0.7573427009619353</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>109.4091947656456</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9989678506928</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>106.38799505241</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1858,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2241,16 +2241,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2259,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9723828910722</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>233.1171859214088</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.04008984845</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>73.88082355467124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.58543740429417</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>98.3902217647544</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,13 +3672,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>119.6813540266635</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5733066869331</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>169.8571210237862</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3982,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>345.6355659138804</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>220.5479980920884</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>959.3165321415871</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>532.4158021548872</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>513.1635853802915</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>491.2270495685531</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>470.1432717983574</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4336,46 +4336,46 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.681059525157</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1903.75548856979</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.400579166202</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>976.4213583974188</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>975.1244923927131</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.3256356528027</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>791.3256356528027</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D4" t="n">
-        <v>628.0088627795734</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>461.8006569324269</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9388827069873</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4488,13 +4488,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
@@ -4521,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.834372675126</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.4916043648684</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.058660820666</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.703751417078</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>1082.561118502788</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
         <v>1220.501010560616</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1961.835816717766</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
         <v>79.39509630577632</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>584.6749752702792</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>681.2762346339712</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C10" t="n">
-        <v>681.2762346339712</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D10" t="n">
-        <v>517.9594617607419</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5047,13 +5047,13 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2745.67509191879</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
         <v>3721.926150405491</v>
@@ -5117,25 +5117,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>646.4020714735193</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>646.4020714735193</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
         <v>1362.599788512017</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.001097697459</v>
+        <v>720.6338262197769</v>
       </c>
       <c r="C13" t="n">
-        <v>845.0285345763751</v>
+        <v>548.6612630986929</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7117617031458</v>
+        <v>548.6612630986929</v>
       </c>
       <c r="E13" t="n">
-        <v>515.5035558559994</v>
+        <v>382.4530572515464</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>210.5912830261068</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>210.5912830261068</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5226,25 +5226,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.088765190713</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.749417416613</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.564968916917</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V13" t="n">
-        <v>1291.853501524946</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.001097697459</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.001097697459</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.001097697459</v>
+        <v>910.7997949318425</v>
       </c>
     </row>
     <row r="14">
@@ -5284,22 +5284,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.08677664988</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5311,13 +5311,13 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
         <v>3363.661363873117</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.1743829682065</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C16" t="n">
-        <v>789.1743829682065</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7117617031458</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="E16" t="n">
-        <v>515.5035558559994</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.081047832659</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.517151278464</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1743829682065</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5521,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5594,28 +5594,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>973.9392920493918</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.5965237391339</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5782,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.149468020199</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.965019520503</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>1518.253552128532</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>1243.401148301044</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.83725174685</v>
+        <v>1040.360468647818</v>
       </c>
       <c r="Y22" t="n">
-        <v>774.4944834365917</v>
+        <v>1040.360468647818</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.654482149731</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>396.9731123886033</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>233.656339515374</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6232,16 +6232,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>4997.579335409525</v>
@@ -6308,19 +6308,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,10 +6706,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
         <v>1828.971033901635</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1429.01906963393</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.455173079735</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.1124047694775</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6946,13 +6946,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D37" t="n">
-        <v>154.4092158344085</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E37" t="n">
-        <v>154.4092158344085</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4092158344085</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2183.331678430316</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1903.14722993062</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1621.435762538649</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1346.583358711162</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1104.019462156967</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O39" t="n">
-        <v>1263.481480696891</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>890.8366926500012</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>890.8366926500012</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>727.5199197767719</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>561.3117139296254</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>389.4499397041858</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>223.1929699984179</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7332,52 +7332,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299894</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358265</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302473</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025268</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251168</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751472</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359501</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4544125320137</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X40" t="n">
-        <v>793.966223959354</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>1081.002661362067</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
         <v>1262.305438882635</v>
@@ -7420,13 +7420,13 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
         <v>4430.205429563419</v>
@@ -7447,16 +7447,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>4284.474559841866</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>4284.474559841866</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3399.46422884086</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>3399.46422884086</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>3399.46422884086</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>3233.256022993713</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>4615.100733636837</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>4333.389266244865</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.536862417378</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>3815.972965863184</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>3589.630197552925</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>3957.244510860532</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>4665.523790018459</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7684,16 +7684,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>107.5235878409019</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5235878409019</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.1393234720196</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1667603509355</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1035.305292184085</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.305292184085</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.305292184085</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>372.2051051843582</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,13 +8467,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>267.4386025673074</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>607.201212966307</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7446820670145</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6939262492853</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
-        <v>835.1882033210079</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>775.2973590804446</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>508.2614594140137</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>912.679259982217</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>772.395863235019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>197.3567057122801</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,13 +9728,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9880,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9956,7 +9956,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>291.2228204893258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10114,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10126,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>877.2336749314295</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>768.7505555806109</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10445,10 +10445,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10594,16 +10594,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>124.138595085601</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>382.6985455853151</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>279.5761010481211</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11308,7 +11308,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>377.8655371612093</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>474.650675344883</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.9491110412816</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4347291553637</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.29561009208696</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919274</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>45.9141007000632</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>86.93357140528681</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>7.021071667244115</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.55431016026014</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.2230562345409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>113.008962604416</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>142.5157325316046</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>22.67695178026365</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>50.56495090171978</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>107.5254829909125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>51.55588169712365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693621.7217352311</v>
+        <v>693621.721735231</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>704395.4771586444</v>
+        <v>704395.4771586442</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>704395.4771586444</v>
+        <v>704395.4771586442</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393148.800907535</v>
+      </c>
+      <c r="C2" t="n">
         <v>393148.8009075351</v>
-      </c>
-      <c r="C2" t="n">
-        <v>393148.8009075353</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>373569.1848794164</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="F2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794167</v>
       </c>
       <c r="G2" t="n">
+        <v>379370.522117777</v>
+      </c>
+      <c r="H2" t="n">
         <v>379370.5221177771</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>379370.522117777</v>
       </c>
-      <c r="I2" t="n">
-        <v>379370.5221177769</v>
-      </c>
       <c r="J2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="K2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="L2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="M2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177771</v>
       </c>
       <c r="O2" t="n">
-        <v>373569.1848794164</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="P2" t="n">
-        <v>373569.1848794165</v>
+        <v>373569.1848794166</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>199866.3919893415</v>
       </c>
       <c r="C4" t="n">
-        <v>199866.3919893416</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
         <v>199866.3919893415</v>
@@ -26444,13 +26444,13 @@
         <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458319</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60568.57553397171</v>
+        <v>-60568.57553397189</v>
       </c>
       <c r="C6" t="n">
-        <v>125836.1578807656</v>
+        <v>125836.1578807655</v>
       </c>
       <c r="D6" t="n">
         <v>125836.1578807654</v>
       </c>
       <c r="E6" t="n">
-        <v>-9386.692563021701</v>
+        <v>-9459.209659421966</v>
       </c>
       <c r="F6" t="n">
-        <v>198045.5950535394</v>
+        <v>197973.077957139</v>
       </c>
       <c r="G6" t="n">
-        <v>192981.9838000341</v>
+        <v>192930.9531378497</v>
       </c>
       <c r="H6" t="n">
-        <v>200607.6058835154</v>
+        <v>200556.5752213312</v>
       </c>
       <c r="I6" t="n">
-        <v>200607.6058835154</v>
+        <v>200556.5752213312</v>
       </c>
       <c r="J6" t="n">
-        <v>55073.9359486989</v>
+        <v>55022.90528651462</v>
       </c>
       <c r="K6" t="n">
-        <v>200607.6058835154</v>
+        <v>200556.5752213311</v>
       </c>
       <c r="L6" t="n">
-        <v>200607.6058835154</v>
+        <v>200556.5752213312</v>
       </c>
       <c r="M6" t="n">
-        <v>27477.11467787583</v>
+        <v>27426.08401569158</v>
       </c>
       <c r="N6" t="n">
-        <v>200607.6058835153</v>
+        <v>200556.5752213312</v>
       </c>
       <c r="O6" t="n">
-        <v>198045.5950535392</v>
+        <v>197973.0779571389</v>
       </c>
       <c r="P6" t="n">
-        <v>198045.5950535393</v>
+        <v>197973.077957139</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,61 +27393,61 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
+        <v>13.45497804879062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>294.8896947407055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>103.323621185591</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>392.4274362026566</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.095730177743476</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>47.18544517283196</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7373373116017</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>201.9824129405221</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.20587070611069</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>185.3716196335914</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6836177392387</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>290.4897201912249</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.3279385133177</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>276.6252613137368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="N3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>349.6900184701286</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>568.8891705336841</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>848.3818838166624</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
-        <v>797.7972439649839</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>752.782272366215</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>485.8622255806804</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>891.3362317686754</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>734.9646003355872</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>174.9574718789468</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36600,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36834,10 +36834,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36846,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37314,16 +37314,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.3677538807724</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127355</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>345.307586229291</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432924</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38028,7 +38028,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>341.7408625566113</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1355886306534</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
